--- a/Main Board/BOM-MB-Rev2f.xlsx
+++ b/Main Board/BOM-MB-Rev2f.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pwver\Documents\Hobby\Curve Tracer\Version 3\Final Version\Main Board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD7D3BE6-BBB6-4C66-9C56-67355242640B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE2E7FD-5BA2-4425-A2A0-C04E44B802F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1125" yWindow="1125" windowWidth="24510" windowHeight="15255" xr2:uid="{D0F92D7D-FA28-431C-AE5F-3583BE58530B}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="703">
   <si>
     <t>Quantity</t>
   </si>
@@ -3041,9 +3041,6 @@
     <t>HS385-ND</t>
   </si>
   <si>
-    <t>Direct replacement</t>
-  </si>
-  <si>
     <t>No longer avaiable</t>
   </si>
   <si>
@@ -3051,6 +3048,24 @@
   </si>
   <si>
     <t>HEATSINK TO-218 10W H=2.5" BLK</t>
+  </si>
+  <si>
+    <t>HS100, HS103</t>
+  </si>
+  <si>
+    <t>HEATSINK TO-220 POWER W/PINS BK</t>
+  </si>
+  <si>
+    <t>530002B02500G</t>
+  </si>
+  <si>
+    <t>HS380-ND</t>
+  </si>
+  <si>
+    <t>This heatsink is cheaper and will fit the board, but you need to drill a hole to fit the MOSFET</t>
+  </si>
+  <si>
+    <t>Direct replacement with the hole to mount the MOSFET in the right position</t>
   </si>
 </sst>
 </file>
@@ -3118,7 +3133,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3134,6 +3149,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3178,7 +3199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3270,12 +3291,33 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFFCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3584,10 +3626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141DE95B-5139-4F8A-9CCE-A913B8066809}">
-  <dimension ref="A1:M134"/>
+  <dimension ref="A1:M135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M89" sqref="M89"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M91" sqref="M91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3604,7 +3646,7 @@
     <col min="10" max="10" width="24.5703125" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
     <col min="12" max="12" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="149.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6757,7 +6799,7 @@
         <v>496</v>
       </c>
       <c r="M89" s="34" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -6771,7 +6813,7 @@
         <v>691</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E90" s="5"/>
       <c r="F90" s="6" t="s">
@@ -6782,7 +6824,7 @@
         <v>692</v>
       </c>
       <c r="I90" s="6" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="J90" s="6" t="s">
         <v>692</v>
@@ -6794,43 +6836,45 @@
         <v>693</v>
       </c>
       <c r="M90" s="26" t="s">
-        <v>694</v>
+        <v>702</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A91" s="19">
-        <v>2</v>
-      </c>
-      <c r="B91" s="16">
-        <v>2</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>497</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>498</v>
-      </c>
-      <c r="E91" s="5"/>
-      <c r="F91" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="G91" s="5"/>
-      <c r="H91" s="6" t="s">
-        <v>500</v>
-      </c>
-      <c r="I91" s="6" t="s">
-        <v>501</v>
-      </c>
-      <c r="J91" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="K91" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L91" s="23" t="s">
-        <v>502</v>
-      </c>
-      <c r="M91" s="26"/>
+      <c r="A91" s="35" t="s">
+        <v>631</v>
+      </c>
+      <c r="B91" s="36" t="s">
+        <v>631</v>
+      </c>
+      <c r="C91" s="37" t="s">
+        <v>697</v>
+      </c>
+      <c r="D91" s="37" t="s">
+        <v>698</v>
+      </c>
+      <c r="E91" s="38"/>
+      <c r="F91" s="37" t="s">
+        <v>699</v>
+      </c>
+      <c r="G91" s="37"/>
+      <c r="H91" s="37" t="s">
+        <v>699</v>
+      </c>
+      <c r="I91" s="37" t="s">
+        <v>695</v>
+      </c>
+      <c r="J91" s="37" t="s">
+        <v>699</v>
+      </c>
+      <c r="K91" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="L91" s="39" t="s">
+        <v>700</v>
+      </c>
+      <c r="M91" s="40" t="s">
+        <v>701</v>
+      </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="19">
@@ -6840,170 +6884,170 @@
         <v>2</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="E92" s="5"/>
       <c r="F92" s="6" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="G92" s="5"/>
       <c r="H92" s="6" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="I92" s="6" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="J92" s="6" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="K92" s="6" t="s">
         <v>10</v>
       </c>
       <c r="L92" s="23" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="M92" s="26"/>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B93" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="E93" s="5"/>
       <c r="F93" s="6" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="G93" s="5"/>
       <c r="H93" s="6" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="I93" s="6" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="J93" s="6" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="K93" s="6" t="s">
         <v>10</v>
       </c>
       <c r="L93" s="23" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="M93" s="26"/>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="19">
-        <v>4</v>
-      </c>
-      <c r="B94" s="16" t="s">
-        <v>679</v>
+        <v>1</v>
+      </c>
+      <c r="B94" s="16">
+        <v>1</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>678</v>
+        <v>509</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="E94" s="5"/>
       <c r="F94" s="6" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="G94" s="5"/>
       <c r="H94" s="6" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="I94" s="6" t="s">
         <v>513</v>
       </c>
       <c r="J94" s="6" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="K94" s="6" t="s">
         <v>10</v>
       </c>
       <c r="L94" s="23" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="M94" s="26"/>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="19">
-        <v>5</v>
-      </c>
-      <c r="B95" s="16">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="B95" s="16" t="s">
+        <v>679</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>519</v>
+        <v>678</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="E95" s="5"/>
       <c r="F95" s="6" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="G95" s="5"/>
       <c r="H95" s="6" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="I95" s="6" t="s">
         <v>513</v>
       </c>
       <c r="J95" s="6" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="K95" s="6" t="s">
         <v>10</v>
       </c>
       <c r="L95" s="23" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="M95" s="26"/>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B96" s="16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="E96" s="5"/>
       <c r="F96" s="6" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="G96" s="5"/>
       <c r="H96" s="6" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="I96" s="6" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="J96" s="6" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="K96" s="6" t="s">
         <v>10</v>
       </c>
       <c r="L96" s="23" t="s">
-        <v>680</v>
+        <v>523</v>
       </c>
       <c r="M96" s="26"/>
     </row>
@@ -7015,100 +7059,100 @@
         <v>1</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="E97" s="5"/>
       <c r="F97" s="6" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="G97" s="5"/>
       <c r="H97" s="6" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="I97" s="6" t="s">
-        <v>532</v>
+        <v>501</v>
       </c>
       <c r="J97" s="6" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="K97" s="6" t="s">
         <v>10</v>
       </c>
       <c r="L97" s="23" t="s">
-        <v>533</v>
+        <v>680</v>
       </c>
       <c r="M97" s="26"/>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B98" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="E98" s="5"/>
       <c r="F98" s="6" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="G98" s="5"/>
       <c r="H98" s="6" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="I98" s="6" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="J98" s="6" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="K98" s="6" t="s">
         <v>10</v>
       </c>
       <c r="L98" s="23" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="M98" s="26"/>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B99" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="E99" s="5"/>
       <c r="F99" s="6" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="G99" s="5"/>
       <c r="H99" s="6" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="I99" s="6" t="s">
-        <v>513</v>
-      </c>
-      <c r="J99" s="28" t="s">
-        <v>681</v>
+        <v>538</v>
+      </c>
+      <c r="J99" s="6" t="s">
+        <v>536</v>
       </c>
       <c r="K99" s="6" t="s">
         <v>10</v>
       </c>
       <c r="L99" s="23" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="M99" s="26"/>
     </row>
@@ -7120,30 +7164,30 @@
         <v>1</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="E100" s="5"/>
       <c r="F100" s="6" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="G100" s="5"/>
       <c r="H100" s="6" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="I100" s="6" t="s">
-        <v>549</v>
-      </c>
-      <c r="J100" s="6" t="s">
-        <v>547</v>
+        <v>513</v>
+      </c>
+      <c r="J100" s="28" t="s">
+        <v>681</v>
       </c>
       <c r="K100" s="6" t="s">
         <v>10</v>
       </c>
       <c r="L100" s="23" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="M100" s="26"/>
     </row>
@@ -7155,32 +7199,30 @@
         <v>1</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="E101" s="5"/>
       <c r="F101" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="G101" s="6" t="s">
-        <v>85</v>
-      </c>
+        <v>547</v>
+      </c>
+      <c r="G101" s="5"/>
       <c r="H101" s="6" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="I101" s="6" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="J101" s="6" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="K101" s="6" t="s">
         <v>10</v>
       </c>
       <c r="L101" s="23" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="M101" s="26"/>
     </row>
@@ -7192,17 +7234,17 @@
         <v>1</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="E102" s="5"/>
       <c r="F102" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H102" s="6" t="s">
         <v>553</v>
@@ -7211,13 +7253,13 @@
         <v>554</v>
       </c>
       <c r="J102" s="6" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="K102" s="6" t="s">
         <v>10</v>
       </c>
       <c r="L102" s="23" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="M102" s="26"/>
     </row>
@@ -7229,17 +7271,17 @@
         <v>1</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="E103" s="5"/>
       <c r="F103" s="6" t="s">
-        <v>563</v>
+        <v>86</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>564</v>
+        <v>87</v>
       </c>
       <c r="H103" s="6" t="s">
         <v>553</v>
@@ -7248,13 +7290,13 @@
         <v>554</v>
       </c>
       <c r="J103" s="6" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="K103" s="6" t="s">
         <v>10</v>
       </c>
       <c r="L103" s="23" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="M103" s="26"/>
     </row>
@@ -7266,17 +7308,17 @@
         <v>1</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="E104" s="5"/>
       <c r="F104" s="6" t="s">
-        <v>88</v>
+        <v>563</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>89</v>
+        <v>564</v>
       </c>
       <c r="H104" s="6" t="s">
         <v>553</v>
@@ -7285,72 +7327,72 @@
         <v>554</v>
       </c>
       <c r="J104" s="6" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="K104" s="6" t="s">
         <v>10</v>
       </c>
       <c r="L104" s="23" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="M104" s="26"/>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B105" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="E105" s="5"/>
       <c r="F105" s="6" t="s">
-        <v>573</v>
+        <v>88</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>573</v>
+        <v>89</v>
       </c>
       <c r="H105" s="6" t="s">
-        <v>574</v>
+        <v>553</v>
       </c>
       <c r="I105" s="6" t="s">
-        <v>575</v>
+        <v>554</v>
       </c>
       <c r="J105" s="6" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="K105" s="6" t="s">
         <v>10</v>
       </c>
       <c r="L105" s="23" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="M105" s="26"/>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B106" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="E106" s="5"/>
       <c r="F106" s="6" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="H106" s="6" t="s">
         <v>574</v>
@@ -7359,13 +7401,13 @@
         <v>575</v>
       </c>
       <c r="J106" s="6" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="K106" s="6" t="s">
         <v>10</v>
       </c>
       <c r="L106" s="23" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="M106" s="26"/>
     </row>
@@ -7377,174 +7419,176 @@
         <v>1</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="E107" s="5"/>
       <c r="F107" s="6" t="s">
-        <v>90</v>
+        <v>580</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>91</v>
+        <v>580</v>
       </c>
       <c r="H107" s="6" t="s">
-        <v>553</v>
+        <v>574</v>
       </c>
       <c r="I107" s="6" t="s">
-        <v>554</v>
+        <v>575</v>
       </c>
       <c r="J107" s="6" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="K107" s="6" t="s">
         <v>10</v>
       </c>
       <c r="L107" s="23" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="M107" s="26"/>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A108" s="19" t="s">
-        <v>632</v>
-      </c>
-      <c r="B108" s="16" t="s">
-        <v>632</v>
+      <c r="A108" s="19">
+        <v>1</v>
+      </c>
+      <c r="B108" s="16">
+        <v>1</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>614</v>
+        <v>584</v>
       </c>
       <c r="E108" s="5"/>
       <c r="F108" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G108" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H108" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="I108" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="J108" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="K108" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L108" s="23" t="s">
+        <v>586</v>
+      </c>
+      <c r="M108" s="26"/>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A109" s="19" t="s">
+        <v>632</v>
+      </c>
+      <c r="B109" s="16" t="s">
+        <v>632</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="E109" s="5"/>
+      <c r="F109" s="6" t="s">
         <v>615</v>
-      </c>
-      <c r="G108" s="5"/>
-      <c r="H108" s="6" t="s">
-        <v>588</v>
-      </c>
-      <c r="I108" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="J108" s="6" t="s">
-        <v>616</v>
-      </c>
-      <c r="K108" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L108" s="23" t="s">
-        <v>617</v>
-      </c>
-      <c r="M108" s="28" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A109" s="19">
-        <v>2</v>
-      </c>
-      <c r="B109" s="16">
-        <v>2</v>
-      </c>
-      <c r="C109" s="6" t="s">
-        <v>589</v>
-      </c>
-      <c r="D109" s="6" t="s">
-        <v>590</v>
-      </c>
-      <c r="E109" s="5"/>
-      <c r="F109" s="21" t="s">
-        <v>618</v>
       </c>
       <c r="G109" s="5"/>
       <c r="H109" s="6" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="I109" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="J109" s="21" t="s">
-        <v>618</v>
+        <v>72</v>
+      </c>
+      <c r="J109" s="6" t="s">
+        <v>616</v>
       </c>
       <c r="K109" s="6" t="s">
         <v>10</v>
       </c>
       <c r="L109" s="23" t="s">
-        <v>619</v>
-      </c>
-      <c r="M109" s="26"/>
+        <v>617</v>
+      </c>
+      <c r="M109" s="28" t="s">
+        <v>682</v>
+      </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A110" s="19" t="s">
-        <v>633</v>
-      </c>
-      <c r="B110" s="16" t="s">
-        <v>633</v>
+      <c r="A110" s="19">
+        <v>2</v>
+      </c>
+      <c r="B110" s="16">
+        <v>2</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>644</v>
+        <v>589</v>
       </c>
       <c r="D110" s="6" t="s">
         <v>590</v>
       </c>
       <c r="E110" s="5"/>
       <c r="F110" s="21" t="s">
-        <v>645</v>
+        <v>618</v>
       </c>
       <c r="G110" s="5"/>
       <c r="H110" s="6" t="s">
-        <v>646</v>
+        <v>591</v>
       </c>
       <c r="I110" s="6" t="s">
         <v>104</v>
       </c>
       <c r="J110" s="21" t="s">
+        <v>618</v>
+      </c>
+      <c r="K110" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L110" s="23" t="s">
+        <v>619</v>
+      </c>
+      <c r="M110" s="26"/>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A111" s="19" t="s">
+        <v>633</v>
+      </c>
+      <c r="B111" s="16" t="s">
+        <v>633</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="E111" s="5"/>
+      <c r="F111" s="21" t="s">
         <v>645</v>
-      </c>
-      <c r="K110" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L110" s="23" t="s">
-        <v>647</v>
-      </c>
-      <c r="M110" s="26"/>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A111" s="19">
-        <v>1</v>
-      </c>
-      <c r="B111" s="16">
-        <v>1</v>
-      </c>
-      <c r="C111" s="6" t="s">
-        <v>592</v>
-      </c>
-      <c r="D111" s="6" t="s">
-        <v>593</v>
-      </c>
-      <c r="E111" s="5"/>
-      <c r="F111" s="6" t="s">
-        <v>594</v>
       </c>
       <c r="G111" s="5"/>
       <c r="H111" s="6" t="s">
-        <v>595</v>
+        <v>646</v>
       </c>
       <c r="I111" s="6" t="s">
-        <v>596</v>
-      </c>
-      <c r="J111" s="6" t="s">
-        <v>595</v>
+        <v>104</v>
+      </c>
+      <c r="J111" s="21" t="s">
+        <v>645</v>
       </c>
       <c r="K111" s="6" t="s">
         <v>10</v>
       </c>
       <c r="L111" s="23" t="s">
-        <v>597</v>
+        <v>647</v>
       </c>
       <c r="M111" s="26"/>
     </row>
@@ -7556,30 +7600,30 @@
         <v>1</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="E112" s="5"/>
       <c r="F112" s="6" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="G112" s="5"/>
       <c r="H112" s="6" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="I112" s="6" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="J112" s="6" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="K112" s="6" t="s">
         <v>10</v>
       </c>
       <c r="L112" s="23" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="M112" s="26"/>
     </row>
@@ -7591,80 +7635,102 @@
         <v>1</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="E113" s="5"/>
       <c r="F113" s="6" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="G113" s="5"/>
       <c r="H113" s="6" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="I113" s="6" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="J113" s="6" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="K113" s="6" t="s">
         <v>10</v>
       </c>
       <c r="L113" s="23" t="s">
-        <v>640</v>
+        <v>603</v>
       </c>
       <c r="M113" s="26"/>
     </row>
-    <row r="114" spans="1:13" ht="195" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="19">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B114" s="16">
-        <v>26</v>
-      </c>
-      <c r="C114" s="7" t="s">
-        <v>609</v>
+        <v>1</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>604</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="E114" s="5"/>
       <c r="F114" s="6" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="G114" s="5"/>
       <c r="H114" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="I114" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="J114" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="K114" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L114" s="23" t="s">
+        <v>640</v>
+      </c>
+      <c r="M114" s="26"/>
+    </row>
+    <row r="115" spans="1:13" ht="195" x14ac:dyDescent="0.25">
+      <c r="A115" s="19">
+        <v>26</v>
+      </c>
+      <c r="B115" s="16">
+        <v>26</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="E115" s="5"/>
+      <c r="F115" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="G115" s="5"/>
+      <c r="H115" s="6" t="s">
         <v>611</v>
       </c>
-      <c r="I114" s="6" t="s">
+      <c r="I115" s="6" t="s">
         <v>661</v>
       </c>
-      <c r="J114" s="6" t="s">
+      <c r="J115" s="6" t="s">
         <v>613</v>
       </c>
-      <c r="K114" s="6" t="s">
+      <c r="K115" s="6" t="s">
         <v>612</v>
       </c>
-      <c r="L114" s="25" t="s">
+      <c r="L115" s="25" t="s">
         <v>660</v>
       </c>
-      <c r="M114" s="26"/>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B115" s="14"/>
-      <c r="C115" s="3"/>
-      <c r="D115" s="3"/>
-      <c r="E115" s="3"/>
-      <c r="F115" s="3"/>
-      <c r="G115" s="3"/>
-      <c r="H115" s="3"/>
-      <c r="I115" s="3"/>
-      <c r="J115" s="3"/>
-      <c r="K115" s="3"/>
-      <c r="L115" s="3"/>
+      <c r="M115" s="26"/>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B116" s="14"/>
@@ -7680,105 +7746,118 @@
       <c r="L116" s="3"/>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B117" s="17" t="s">
+      <c r="B117" s="14"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="3"/>
+      <c r="E117" s="3"/>
+      <c r="F117" s="3"/>
+      <c r="G117" s="3"/>
+      <c r="H117" s="3"/>
+      <c r="I117" s="3"/>
+      <c r="J117" s="3"/>
+      <c r="K117" s="3"/>
+      <c r="L117" s="3"/>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B118" s="17" t="s">
         <v>626</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B119" s="17" t="s">
-        <v>627</v>
-      </c>
-      <c r="D119" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B120" s="17" t="s">
+        <v>627</v>
+      </c>
+      <c r="D120" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B121" s="17" t="s">
         <v>636</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D121" t="s">
         <v>637</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D121" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D122" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D123" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D124" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D125" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D126" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D127" t="s">
-        <v>643</v>
+        <v>654</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D128" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
     </row>
     <row r="129" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D129" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D130" t="s">
         <v>650</v>
-      </c>
-    </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B130" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="D130" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="131" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B131" s="17" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D131" t="s">
-        <v>683</v>
+        <v>659</v>
       </c>
     </row>
     <row r="132" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B132" s="17" t="s">
+        <v>671</v>
+      </c>
+      <c r="D132" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B133" s="17" t="s">
         <v>685</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D133" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D133" t="s">
+    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D134" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B134" s="17" t="s">
+    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B135" s="17" t="s">
         <v>689</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D135" t="s">
         <v>690</v>
       </c>
     </row>

--- a/Main Board/BOM-MB-Rev2f.xlsx
+++ b/Main Board/BOM-MB-Rev2f.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pwver\Documents\Hobby\Curve Tracer\Version 3\Final Version\Main Board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE2E7FD-5BA2-4425-A2A0-C04E44B802F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFF403D-A14F-42B0-B263-48B9E6090C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="24510" windowHeight="15255" xr2:uid="{D0F92D7D-FA28-431C-AE5F-3583BE58530B}"/>
+    <workbookView xWindow="2340" yWindow="1230" windowWidth="24510" windowHeight="15255" xr2:uid="{D0F92D7D-FA28-431C-AE5F-3583BE58530B}"/>
   </bookViews>
   <sheets>
     <sheet name="MainBoardRev2b" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="706">
   <si>
     <t>Quantity</t>
   </si>
@@ -3066,6 +3066,15 @@
   </si>
   <si>
     <t>Direct replacement with the hole to mount the MOSFET in the right position</t>
+  </si>
+  <si>
+    <t>Alternative is the less expensive model 1031 van Keystone Electronics. PC Test Point Slotted Digikey pn 36-1031-ND</t>
+  </si>
+  <si>
+    <t>Added an alternative for the test pins</t>
+  </si>
+  <si>
+    <t>Fixed a qty issue for a connector</t>
   </si>
 </sst>
 </file>
@@ -3199,7 +3208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3307,6 +3316,9 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3626,10 +3638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141DE95B-5139-4F8A-9CCE-A913B8066809}">
-  <dimension ref="A1:M135"/>
+  <dimension ref="A1:M137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M91" sqref="M91"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6982,8 +6994,8 @@
       <c r="M94" s="26"/>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A95" s="19">
-        <v>4</v>
+      <c r="A95" s="29" t="s">
+        <v>679</v>
       </c>
       <c r="B95" s="16" t="s">
         <v>679</v>
@@ -7730,7 +7742,9 @@
       <c r="L115" s="25" t="s">
         <v>660</v>
       </c>
-      <c r="M115" s="26"/>
+      <c r="M115" s="41" t="s">
+        <v>703</v>
+      </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B116" s="14"/>
@@ -7861,6 +7875,16 @@
         <v>690</v>
       </c>
     </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D136" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D137" t="s">
+        <v>705</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
